--- a/mini_project/Book1.xlsx
+++ b/mini_project/Book1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user.DESKTOP-HAAH44U\Desktop\SPRINT_CAPG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user.DESKTOP-HAAH44U\Desktop\Narayan_Maity\mini_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A38BE488-BE31-4E8E-B3AD-922DEF405530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22A52700-D48A-428F-8B36-BB9E797755C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{2D0CD0DD-1036-4221-ABBD-FA9372E9642E}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="44">
   <si>
     <t>customer</t>
   </si>
@@ -155,6 +155,12 @@
   </si>
   <si>
     <t>USER_LOGIN</t>
+  </si>
+  <si>
+    <t>deleted</t>
+  </si>
+  <si>
+    <t>added</t>
   </si>
 </sst>
 </file>
@@ -217,7 +223,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -381,11 +387,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFC00000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFC00000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFC00000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFC00000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -407,6 +428,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -724,7 +747,7 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -992,10 +1015,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B56A1FA-FD25-4995-8C38-0AE0809F490A}">
-  <dimension ref="A1:O18"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="83" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1265,12 +1288,24 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="18" spans="7:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="6:10" x14ac:dyDescent="0.25">
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
       <c r="J18" s="12"/>
     </row>
+    <row r="20" spans="6:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F20" s="21"/>
+      <c r="G20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="6:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F21" s="22"/>
+      <c r="G21" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
